--- a/data/trans_orig/P1431-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>10994</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5494</v>
+        <v>5587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20840</v>
+        <v>20409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01053137345122284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005262442233716218</v>
+        <v>0.005352092891604526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01996339156687615</v>
+        <v>0.01954975586935387</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -763,19 +763,19 @@
         <v>28852</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18754</v>
+        <v>19202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40058</v>
+        <v>40841</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0257918118086716</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01676454610718393</v>
+        <v>0.01716539605474745</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0358092809484244</v>
+        <v>0.03650902682639712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -784,19 +784,19 @@
         <v>39846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28568</v>
+        <v>29543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53999</v>
+        <v>53204</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01842521936000993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01321011138745557</v>
+        <v>0.01366100782716656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0249696663773952</v>
+        <v>0.02460221243716368</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1032941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1023095</v>
+        <v>1023526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1038441</v>
+        <v>1038348</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9894686265487772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9800366084331242</v>
+        <v>0.9804502441306461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947375577662839</v>
+        <v>0.9946479071083955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1002</v>
@@ -834,19 +834,19 @@
         <v>1089801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1078595</v>
+        <v>1077812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1099899</v>
+        <v>1099451</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9742081881913284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9641907190515755</v>
+        <v>0.9634909731736029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9832354538928161</v>
+        <v>0.9828346039452525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1970</v>
@@ -855,19 +855,19 @@
         <v>2122742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2108589</v>
+        <v>2109384</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2134020</v>
+        <v>2133045</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.98157478063999</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9750303336226052</v>
+        <v>0.9753977875628363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9867898886125447</v>
+        <v>0.9863389921728334</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>12156</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5985</v>
+        <v>6880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20267</v>
+        <v>20591</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01244123699476304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006125632826261969</v>
+        <v>0.007041053578553311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02074257445138954</v>
+        <v>0.02107414004587716</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -980,19 +980,19 @@
         <v>11302</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5960</v>
+        <v>5428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20693</v>
+        <v>19116</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01035756271037114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005461437805417344</v>
+        <v>0.004974081909215313</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01896310243012349</v>
+        <v>0.01751761170245829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1001,19 +1001,19 @@
         <v>23458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15273</v>
+        <v>14662</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35245</v>
+        <v>35671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01134190260205803</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007384291725938232</v>
+        <v>0.007089156888480828</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01704070356407593</v>
+        <v>0.0172464113447034</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>964917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>956806</v>
+        <v>956482</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>971088</v>
+        <v>970193</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9875587630052369</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9792574255486104</v>
+        <v>0.9789258599541228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.993874367173738</v>
+        <v>0.9929589464214467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1007</v>
@@ -1051,19 +1051,19 @@
         <v>1079916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1070525</v>
+        <v>1072102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1085258</v>
+        <v>1085790</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9896424372896289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9810368975698759</v>
+        <v>0.9824823882975414</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9945385621945827</v>
+        <v>0.9950259180907847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1919</v>
@@ -1072,19 +1072,19 @@
         <v>2044833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2033046</v>
+        <v>2032620</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2053018</v>
+        <v>2053629</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.988658097397942</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9829592964359239</v>
+        <v>0.9827535886552965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9926157082740618</v>
+        <v>0.9929108431115191</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>9455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5070</v>
+        <v>4307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18968</v>
+        <v>18650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01068184810990176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005728088497774723</v>
+        <v>0.004866477028553069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02142977182868517</v>
+        <v>0.02107095167324574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1197,19 +1197,19 @@
         <v>7936</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3892</v>
+        <v>3801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15005</v>
+        <v>15648</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00906091981730601</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004443900995259555</v>
+        <v>0.004339751634478424</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01713342421671161</v>
+        <v>0.01786696642878163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>17390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10915</v>
+        <v>10248</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27377</v>
+        <v>27162</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009875673209419181</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006198315935667184</v>
+        <v>0.005819495626852459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01554730244868236</v>
+        <v>0.01542520939910627</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>875660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>866147</v>
+        <v>866465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>880045</v>
+        <v>880808</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9893181518900982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9785702281713146</v>
+        <v>0.9789290483267542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9942719115022253</v>
+        <v>0.9951335229714469</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>813</v>
@@ -1268,19 +1268,19 @@
         <v>867860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>860791</v>
+        <v>860148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>871904</v>
+        <v>871995</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9909390801826939</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9828665757832878</v>
+        <v>0.9821330335712183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9955560990047404</v>
+        <v>0.9956602483655216</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1634</v>
@@ -1289,19 +1289,19 @@
         <v>1743521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1733534</v>
+        <v>1733749</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1749996</v>
+        <v>1750663</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9901243267905808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9844526975513177</v>
+        <v>0.9845747906008938</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9938016840643329</v>
+        <v>0.9941805043731475</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>8362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3774</v>
+        <v>3249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17949</v>
+        <v>18718</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01662275038889789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007503519144410379</v>
+        <v>0.006459346921309196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03568239304447079</v>
+        <v>0.03721021560876407</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1414,19 +1414,19 @@
         <v>4912</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1166</v>
+        <v>1718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11967</v>
+        <v>12520</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01084929092069947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002575104045746451</v>
+        <v>0.003794889821262359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02643233807742244</v>
+        <v>0.027654890476835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1435,19 +1435,19 @@
         <v>13273</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6436</v>
+        <v>6284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23014</v>
+        <v>24693</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01388790551045343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006734328860834811</v>
+        <v>0.006574697217514768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02407916260240935</v>
+        <v>0.02583597220284056</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>494661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>485074</v>
+        <v>484305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>499249</v>
+        <v>499774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9833772496111021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9643176069555296</v>
+        <v>0.9627897843912361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9924964808555901</v>
+        <v>0.9935406530786909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>408</v>
@@ -1485,19 +1485,19 @@
         <v>447824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>440769</v>
+        <v>440216</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>451570</v>
+        <v>451018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9891507090793006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9735676619225775</v>
+        <v>0.9723451095231651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9974248959542535</v>
+        <v>0.9962051101787376</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>862</v>
@@ -1506,19 +1506,19 @@
         <v>942485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>932744</v>
+        <v>931065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>949322</v>
+        <v>949474</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9861120944895466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9759208373975908</v>
+        <v>0.9741640277971595</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9932656711391652</v>
+        <v>0.9934253027824852</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>40966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29727</v>
+        <v>28732</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56697</v>
+        <v>54438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01201660303419327</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00871965161090615</v>
+        <v>0.008427863897637456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01663085864985455</v>
+        <v>0.01596816868243461</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1631,19 +1631,19 @@
         <v>53002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40677</v>
+        <v>41002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68912</v>
+        <v>69082</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01497902534643343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01149581028945906</v>
+        <v>0.01158777342945992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01947549422379992</v>
+        <v>0.01952337908867745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1652,19 +1652,19 @@
         <v>93968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75685</v>
+        <v>76467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115424</v>
+        <v>115695</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01352537173443316</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01089371534422983</v>
+        <v>0.01100633825490868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01661365742343725</v>
+        <v>0.0166525957096921</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3368179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3352448</v>
+        <v>3354707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3379418</v>
+        <v>3380413</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9879833969658067</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9833691413501456</v>
+        <v>0.9840318313175654</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912803483890938</v>
+        <v>0.9915721361023626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3230</v>
@@ -1702,19 +1702,19 @@
         <v>3485401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3469491</v>
+        <v>3469321</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3497726</v>
+        <v>3497401</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9850209746535665</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9805245057762006</v>
+        <v>0.9804766209113226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9885041897105417</v>
+        <v>0.98841222657054</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6385</v>
@@ -1723,19 +1723,19 @@
         <v>6853580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6832124</v>
+        <v>6831853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6871863</v>
+        <v>6871081</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9864746282655669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9833863425765622</v>
+        <v>0.9833474042903084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.98910628465577</v>
+        <v>0.988993661745092</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>19960</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12236</v>
+        <v>12494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30496</v>
+        <v>29613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01769528622367573</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01084753736046377</v>
+        <v>0.01107633640077405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0270353758396039</v>
+        <v>0.02625286191028721</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2088,19 +2088,19 @@
         <v>27978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18515</v>
+        <v>19048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40564</v>
+        <v>41426</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02221277568063447</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01469961431629336</v>
+        <v>0.01512264440182561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03220526745220156</v>
+        <v>0.03288891006909526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2109,19 +2109,19 @@
         <v>47939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35583</v>
+        <v>34711</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66435</v>
+        <v>63422</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02007849639001803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01490355060727483</v>
+        <v>0.01453821050700966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02782536776179781</v>
+        <v>0.0265637118001208</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>1108037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1097501</v>
+        <v>1098384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1115761</v>
+        <v>1115503</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9823047137763242</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9729646241603956</v>
+        <v>0.9737471380897129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9891524626395359</v>
+        <v>0.988923663599226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1163</v>
@@ -2159,19 +2159,19 @@
         <v>1231583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1218997</v>
+        <v>1218135</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1241046</v>
+        <v>1240513</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9777872243193655</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9677947325477984</v>
+        <v>0.9671110899309046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9853003856837065</v>
+        <v>0.9848773555981744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2209</v>
@@ -2180,19 +2180,19 @@
         <v>2339619</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2321123</v>
+        <v>2324136</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2351975</v>
+        <v>2352847</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.979921503609982</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9721746322382022</v>
+        <v>0.9734362881998793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9850964493927252</v>
+        <v>0.9854617894929903</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>10666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5173</v>
+        <v>5507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18947</v>
+        <v>20021</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01173548487829503</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005691585452380669</v>
+        <v>0.006059992107117461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02084795458985862</v>
+        <v>0.02202950750314508</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2305,19 +2305,19 @@
         <v>15539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9091</v>
+        <v>8678</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26357</v>
+        <v>24367</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01543884374056137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009032094139631098</v>
+        <v>0.008622257150061079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02618779795533178</v>
+        <v>0.02421012264300593</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -2326,19 +2326,19 @@
         <v>26204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17579</v>
+        <v>16792</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37647</v>
+        <v>37482</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01368157116372638</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009178419059149047</v>
+        <v>0.00876718231256003</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01965583169507609</v>
+        <v>0.01956990452337788</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>898159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>889878</v>
+        <v>888804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>903652</v>
+        <v>903318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.988264515121705</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9791520454101412</v>
+        <v>0.9779704924968549</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9943084145476192</v>
+        <v>0.9939400078928826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>937</v>
@@ -2376,19 +2376,19 @@
         <v>990936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980118</v>
+        <v>982108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>997384</v>
+        <v>997797</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9845611562594386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.973812202044668</v>
+        <v>0.975789877356994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9909679058603688</v>
+        <v>0.991377742849939</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1808</v>
@@ -2397,19 +2397,19 @@
         <v>1889096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1877653</v>
+        <v>1877818</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1897721</v>
+        <v>1898508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9863184288362736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9803441683049239</v>
+        <v>0.9804300954766221</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9908215809408509</v>
+        <v>0.99123281768744</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>10738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5733</v>
+        <v>5487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19275</v>
+        <v>17725</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01303576643963263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006960084688764876</v>
+        <v>0.006660489222130379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02339860205211725</v>
+        <v>0.02151741647086479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2522,19 +2522,19 @@
         <v>9229</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4041</v>
+        <v>4388</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17763</v>
+        <v>18000</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01196940501238024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005241033150703623</v>
+        <v>0.005691428228859658</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02303651307999036</v>
+        <v>0.02334480705032817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -2543,19 +2543,19 @@
         <v>19967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12162</v>
+        <v>12719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30908</v>
+        <v>29570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0125202046279506</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007625907063848311</v>
+        <v>0.007975307832628481</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01938032995847899</v>
+        <v>0.01854131089835597</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>813021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>804484</v>
+        <v>806034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>818026</v>
+        <v>818272</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9869642335603673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9766013979478823</v>
+        <v>0.9784825835291352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9930399153112351</v>
+        <v>0.9933395107778695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>720</v>
@@ -2593,19 +2593,19 @@
         <v>761830</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>753296</v>
+        <v>753059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>767018</v>
+        <v>766671</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9880305949876198</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.97696348692001</v>
+        <v>0.9766551929496718</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9947589668492968</v>
+        <v>0.9943085717711403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1496</v>
@@ -2614,19 +2614,19 @@
         <v>1574851</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1563910</v>
+        <v>1565248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1582656</v>
+        <v>1582099</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9874797953720494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9806196700415212</v>
+        <v>0.981458689101644</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9923740929361518</v>
+        <v>0.9920246921673715</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>2973</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7982</v>
+        <v>8716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005867269053625125</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001772273184113689</v>
+        <v>0.00176969722028555</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01575375387097266</v>
+        <v>0.01720134100062844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2739,19 +2739,19 @@
         <v>3111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9140</v>
+        <v>8742</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006353100819647995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001999310851697858</v>
+        <v>0.002007050946241176</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01866517281586949</v>
+        <v>0.01785110706028398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -2760,19 +2760,19 @@
         <v>6084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2130</v>
+        <v>1987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12115</v>
+        <v>12582</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006106039623462942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002137618076573755</v>
+        <v>0.00199440181861473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01215847790759741</v>
+        <v>0.01262714700664033</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>503728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498719</v>
+        <v>497985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505803</v>
+        <v>505804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9941327309463749</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9842462461290273</v>
+        <v>0.9827986589993716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982277268158863</v>
+        <v>0.9982303027797144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>452</v>
@@ -2810,19 +2810,19 @@
         <v>486587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>480558</v>
+        <v>480956</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488719</v>
+        <v>488715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.993646899180352</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9813348271841303</v>
+        <v>0.9821488929397136</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9980006891483022</v>
+        <v>0.9979929490537588</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>920</v>
@@ -2831,19 +2831,19 @@
         <v>990314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>984283</v>
+        <v>983816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>994268</v>
+        <v>994411</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9938939603765371</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9878415220924026</v>
+        <v>0.9873728529933596</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9978623819234262</v>
+        <v>0.9980055981813853</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>44337</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33530</v>
+        <v>32422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60925</v>
+        <v>59189</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01316700377652005</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009957454240881949</v>
+        <v>0.009628434816083829</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01809330886609896</v>
+        <v>0.01757769656035635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -2956,19 +2956,19 @@
         <v>55857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42327</v>
+        <v>42810</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71732</v>
+        <v>72326</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01583800860592869</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01200158763700899</v>
+        <v>0.01213858206082127</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02033929333544646</v>
+        <v>0.02050766946822347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -2977,19 +2977,19 @@
         <v>100194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81323</v>
+        <v>81210</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>121616</v>
+        <v>120751</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01453340607878184</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01179611750208811</v>
+        <v>0.01177966140699961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0176406825474239</v>
+        <v>0.017515197244176</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3322945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3306357</v>
+        <v>3308093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3333752</v>
+        <v>3334860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.98683299622348</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9819066911339012</v>
+        <v>0.9824223034396438</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900425457591181</v>
+        <v>0.9903715651839162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3272</v>
@@ -3027,19 +3027,19 @@
         <v>3470935</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3455060</v>
+        <v>3454466</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3484465</v>
+        <v>3483982</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9841619913940713</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9796607066645536</v>
+        <v>0.9794923305317763</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9879984123629911</v>
+        <v>0.9878614179391786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6433</v>
@@ -3048,19 +3048,19 @@
         <v>6793881</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6772459</v>
+        <v>6773324</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6812752</v>
+        <v>6812865</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9854665939212182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9823593174525762</v>
+        <v>0.9824848027558239</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.988203882497912</v>
+        <v>0.9882203385930002</v>
       </c>
     </row>
     <row r="18">
